--- a/data/trans_dic/P02E$otras-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P02E$otras-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02248954406785727</v>
+        <v>0.02422807344203406</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03710950024435205</v>
+        <v>0.03515510668195223</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03208821756181536</v>
+        <v>0.03149396668691491</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04050836576786929</v>
+        <v>0.04288194757456215</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03453257754439825</v>
+        <v>0.03422468242858458</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04067704323418943</v>
+        <v>0.04067967891402646</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04387568065143887</v>
+        <v>0.04336892826179881</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04088160714533841</v>
+        <v>0.03974324440725626</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04660052199886833</v>
+        <v>0.04754322070585688</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1087098175292282</v>
+        <v>0.1088957023050011</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1250057888073389</v>
+        <v>0.1227526801698173</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1273894349339312</v>
+        <v>0.1263818234017426</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1045270105845911</v>
+        <v>0.1021173617915009</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08018941602114452</v>
+        <v>0.08133847534701324</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1194936736443975</v>
+        <v>0.1192774113928531</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09710211631210403</v>
+        <v>0.09305779872967521</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08174886426885451</v>
+        <v>0.08152563413110343</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1055395601181635</v>
+        <v>0.1078330383480462</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03365174539250569</v>
+        <v>0.03375292109257354</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03205386781029265</v>
+        <v>0.03237266341875952</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02594337817106287</v>
+        <v>0.02577948712775843</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04336770687297922</v>
+        <v>0.04462588986393243</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03747797900389162</v>
+        <v>0.03774284951655447</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06975204640288725</v>
+        <v>0.07110084944140077</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04469632516980031</v>
+        <v>0.04475738558239097</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03870280612907104</v>
+        <v>0.0388548416873874</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05582530215515774</v>
+        <v>0.05667206407155139</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07975776059326008</v>
+        <v>0.08365661701360898</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06566200533352717</v>
+        <v>0.06454495660725658</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06194426258428104</v>
+        <v>0.06326820572044993</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0820506668553789</v>
+        <v>0.08335625047129698</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06705309423666234</v>
+        <v>0.06596441343631113</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1134914707077079</v>
+        <v>0.1129283731910498</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07493661488389002</v>
+        <v>0.07570075579899273</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05995525483642059</v>
+        <v>0.05952923918286816</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08643287085831641</v>
+        <v>0.08769993952851035</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1308984564317953</v>
+        <v>0.132924226681209</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02731019826505108</v>
+        <v>0.02707338496857842</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03386774555652171</v>
+        <v>0.03503610047043856</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02295781128918749</v>
+        <v>0.02350205708622764</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03438044434239564</v>
+        <v>0.03501703090662562</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08585023863541319</v>
+        <v>0.08788247242499447</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07481329541152731</v>
+        <v>0.078767506059733</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03931569196395835</v>
+        <v>0.03841104979093064</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07396509909863261</v>
+        <v>0.07570547463206966</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2736186898947789</v>
+        <v>0.2732049133046828</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1063927067654923</v>
+        <v>0.1062145122672956</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1202023128578164</v>
+        <v>0.1218039360514637</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0860301790957898</v>
+        <v>0.09050430277809406</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1054021741927853</v>
+        <v>0.1014369192490702</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1844999788448116</v>
+        <v>0.1858934538599153</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1470463350802415</v>
+        <v>0.1546559366515824</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08851625114056</v>
+        <v>0.0889141876194169</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1456013126445529</v>
+        <v>0.1393470293730247</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06176424516246202</v>
+        <v>0.06240109203997404</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03892460271334927</v>
+        <v>0.03998811677281883</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03810181813967879</v>
+        <v>0.03671341718421733</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04788630607533822</v>
+        <v>0.04733749628881735</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04250676692261318</v>
+        <v>0.04138943215534679</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0774435120452262</v>
+        <v>0.07860735654650577</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05762032612183245</v>
+        <v>0.05716497346117174</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04433772305190644</v>
+        <v>0.04412146022726987</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06515467072316593</v>
+        <v>0.06548711603389805</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1046491827477116</v>
+        <v>0.1083105060843207</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06884504772578477</v>
+        <v>0.06848158854496215</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06907739629545252</v>
+        <v>0.06881399218935762</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0764077292563486</v>
+        <v>0.07616288242905106</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06660233001372862</v>
+        <v>0.06472876826167703</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1133175723529391</v>
+        <v>0.1148383165559809</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08312023278935055</v>
+        <v>0.08246241397212378</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06223029175708705</v>
+        <v>0.06231775172636902</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09054244887647553</v>
+        <v>0.09015623929754045</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2548</v>
+        <v>2745</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6719</v>
+        <v>6365</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4093</v>
+        <v>4017</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10983</v>
+        <v>11627</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>13405</v>
+        <v>13286</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8051</v>
+        <v>8052</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>16866</v>
+        <v>16672</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>23272</v>
+        <v>22624</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>15168</v>
+        <v>15475</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12315</v>
+        <v>12336</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>22633</v>
+        <v>22225</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16249</v>
+        <v>16120</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>28341</v>
+        <v>27687</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>31129</v>
+        <v>31575</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>23652</v>
+        <v>23609</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>37327</v>
+        <v>35773</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>46535</v>
+        <v>46408</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>34352</v>
+        <v>35098</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13012</v>
+        <v>13052</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>20034</v>
+        <v>20234</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12456</v>
+        <v>12377</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>24648</v>
+        <v>25363</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>33912</v>
+        <v>34151</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>48648</v>
+        <v>49588</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>42686</v>
+        <v>42744</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>59210</v>
+        <v>59443</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>65737</v>
+        <v>66734</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30841</v>
+        <v>32348</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>41040</v>
+        <v>40342</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>29740</v>
+        <v>30375</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>46633</v>
+        <v>47375</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>60673</v>
+        <v>59688</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>79153</v>
+        <v>78761</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>71566</v>
+        <v>72296</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>91724</v>
+        <v>91072</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>101778</v>
+        <v>103270</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16524</v>
+        <v>16780</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4835</v>
+        <v>4793</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4894</v>
+        <v>5063</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3819</v>
+        <v>3909</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7696</v>
+        <v>7839</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>18335</v>
+        <v>18769</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>21888</v>
+        <v>23045</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>15762</v>
+        <v>15399</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>26486</v>
+        <v>27109</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>34540</v>
+        <v>34488</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18835</v>
+        <v>18804</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>17371</v>
+        <v>17602</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14310</v>
+        <v>15054</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>23596</v>
+        <v>22708</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>39404</v>
+        <v>39701</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>43021</v>
+        <v>45248</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>35486</v>
+        <v>35645</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>52138</v>
+        <v>49898</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>38676</v>
+        <v>39075</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>38267</v>
+        <v>39313</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>28659</v>
+        <v>27615</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>48165</v>
+        <v>47613</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>64478</v>
+        <v>62784</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>85881</v>
+        <v>87171</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>94037</v>
+        <v>93294</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>110845</v>
+        <v>110304</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>121260</v>
+        <v>121879</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>65531</v>
+        <v>67823</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>67683</v>
+        <v>67325</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>51958</v>
+        <v>51760</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>76852</v>
+        <v>76606</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>101029</v>
+        <v>98187</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>125663</v>
+        <v>127349</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>135653</v>
+        <v>134579</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>155577</v>
+        <v>155795</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>168510</v>
+        <v>167791</v>
       </c>
     </row>
     <row r="20">
